--- a/Project 2/exercise_albb-salaries-2003.xlsx
+++ b/Project 2/exercise_albb-salaries-2003.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0E00943A-FD81-4E9E-B5CE-9F835C8E5941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0DF6E0-1A0E-4600-A04D-57BD53FE3727}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="albb-salaries-2003" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'albb-salaries-2003'!$A$1:$E$382</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1795,7 +1798,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2642,11 +2645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,16 +2680,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1">
-        <v>900000</v>
+        <v>11500000</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -2694,33 +2697,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1">
-        <v>300000</v>
+        <v>9900000</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>10100000</v>
+        <v>8166667</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -2728,16 +2731,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
-        <v>5500000</v>
+        <v>7833333</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2745,118 +2748,118 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
-        <v>750000</v>
+        <v>7250000</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1">
-        <v>11428571</v>
+        <v>7250000</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>2200000</v>
+        <v>5350000</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>6000000</v>
+        <v>4250000</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1">
-        <v>15600000</v>
+        <v>3875000</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1">
-        <v>364100</v>
+        <v>2270000</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1">
-        <v>5000000</v>
+        <v>2266667</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -2864,33 +2867,33 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1">
-        <v>400000</v>
+        <v>1425000</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1">
-        <v>550000</v>
+        <v>1425000</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -2898,33 +2901,33 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1">
-        <v>13000000</v>
+        <v>925000</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -2932,50 +2935,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1">
-        <v>12000000</v>
+        <v>725000</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>2400000</v>
+        <v>425000</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1">
-        <v>11500000</v>
+        <v>375000</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -2983,16 +2986,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1">
-        <v>8000000</v>
+        <v>337500</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -3000,16 +3003,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>10500000</v>
+        <v>325000</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -3017,67 +3020,67 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1">
-        <v>800000</v>
+        <v>320000</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
-        <v>2500000</v>
+        <v>315000</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1">
-        <v>5000000</v>
+        <v>312500</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1">
-        <v>4150000</v>
+        <v>305000</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -3085,16 +3088,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1">
-        <v>3250000</v>
+        <v>302500</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -3102,237 +3105,237 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>12357143</v>
+        <v>302500</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1">
-        <v>700000</v>
+        <v>300000</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="D29" s="1">
-        <v>1500000</v>
+        <v>13000000</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1">
-        <v>5350000</v>
+        <v>7030000</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1">
-        <v>11500000</v>
+        <v>7000000</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="D32" s="1">
-        <v>302500</v>
+        <v>6400000</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1">
-        <v>325000</v>
+        <v>4250000</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="D34" s="1">
-        <v>425000</v>
+        <v>4250000</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="D35" s="1">
-        <v>7250000</v>
+        <v>3500000</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="D36" s="1">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="D37" s="1">
-        <v>725000</v>
+        <v>3100000</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="D38" s="1">
-        <v>7250000</v>
+        <v>3000000</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D39" s="1">
-        <v>2270000</v>
+        <v>3000000</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1">
-        <v>315000</v>
+        <v>2900000</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -3340,50 +3343,50 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="D41" s="1">
-        <v>1425000</v>
+        <v>1725000</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="D42" s="1">
-        <v>320000</v>
+        <v>1550000</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="D43" s="1">
-        <v>2266667</v>
+        <v>1200000</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -3391,84 +3394,84 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="D44" s="1">
-        <v>925000</v>
+        <v>1200000</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="D45" s="1">
-        <v>7833333</v>
+        <v>1000000</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="D47" s="1">
-        <v>312500</v>
+        <v>1000000</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="D48" s="1">
-        <v>9900000</v>
+        <v>900000</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -3476,16 +3479,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="D49" s="1">
-        <v>1425000</v>
+        <v>762500</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -3493,33 +3496,33 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="D50" s="1">
-        <v>8166667</v>
+        <v>375000</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1">
-        <v>305000</v>
+        <v>350000</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -3527,33 +3530,33 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="D52" s="1">
-        <v>4250000</v>
+        <v>330000</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="D53" s="1">
-        <v>3875000</v>
+        <v>325000</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -3561,16 +3564,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="D54" s="1">
-        <v>375000</v>
+        <v>325000</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -3578,53 +3581,53 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1">
-        <v>302500</v>
+        <v>305000</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="D56" s="1">
-        <v>337500</v>
+        <v>300000</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1">
-        <v>5500000</v>
+        <v>300000</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,13 +3635,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1">
-        <v>7500000</v>
+        <v>20000000</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -3649,13 +3652,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D59" s="1">
-        <v>3000000</v>
+        <v>15500000</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -3666,16 +3669,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1">
-        <v>324500</v>
+        <v>11000000</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,16 +3686,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1">
-        <v>500000</v>
+        <v>7500000</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,16 +3703,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="D62" s="1">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,16 +3720,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="D63" s="1">
-        <v>2000000</v>
+        <v>4700000</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,16 +3737,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>300000</v>
+        <v>4000000</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,16 +3754,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D65" s="1">
-        <v>407500</v>
+        <v>4000000</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,13 +3771,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="D66" s="1">
-        <v>1700000</v>
+        <v>3625000</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -3785,16 +3788,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1">
-        <v>625000</v>
+        <v>3450000</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3802,13 +3805,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D68" s="1">
-        <v>3625000</v>
+        <v>3000000</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -3819,13 +3822,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D69" s="1">
-        <v>309500</v>
+        <v>2900000</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -3836,16 +3839,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>15500000</v>
+        <v>2100000</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,16 +3856,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="D71" s="1">
-        <v>2900000</v>
+        <v>2000000</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,16 +3873,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1">
         <v>2000000</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,16 +3890,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="D73" s="1">
-        <v>805000</v>
+        <v>1850000</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,16 +3907,16 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D74" s="1">
-        <v>2100000</v>
+        <v>1700000</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,16 +3924,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>4000000</v>
+        <v>1250000</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,16 +3941,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>1250000</v>
+        <v>805000</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,16 +3958,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D77" s="1">
-        <v>300000</v>
+        <v>625000</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3972,16 +3975,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D78" s="1">
-        <v>20000000</v>
+        <v>500000</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,16 +3992,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D79" s="1">
-        <v>1850000</v>
+        <v>407500</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,16 +4009,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1">
-        <v>4700000</v>
+        <v>324500</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,13 +4026,13 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1">
-        <v>4000000</v>
+        <v>309500</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -4040,16 +4043,16 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1">
-        <v>3450000</v>
+        <v>300000</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4071,16 +4074,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D84" s="1">
-        <v>1500000</v>
+        <v>300000</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -4088,84 +4091,84 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
       <c r="D85" s="1">
-        <v>5125000</v>
+        <v>9000000</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>421</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>422</v>
       </c>
       <c r="D86" s="1">
-        <v>302100</v>
+        <v>8250000</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>432</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="D87" s="1">
-        <v>1000000</v>
+        <v>6250000</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="D88" s="1">
-        <v>330000</v>
+        <v>5000000</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="D89" s="1">
-        <v>314300</v>
+        <v>5000000</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -4173,33 +4176,33 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="D90" s="1">
-        <v>303000</v>
+        <v>4250000</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D91" s="1">
-        <v>7166667</v>
+        <v>4200000</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -4207,16 +4210,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D92" s="1">
-        <v>301100</v>
+        <v>1400000</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -4224,135 +4227,135 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="D93" s="1">
-        <v>900000</v>
+        <v>700000</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="D94" s="1">
-        <v>3916667</v>
+        <v>675000</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="D95" s="1">
-        <v>302200</v>
+        <v>600000</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>448</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>449</v>
       </c>
       <c r="D96" s="1">
-        <v>400000</v>
+        <v>575000</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>434</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>435</v>
       </c>
       <c r="D97" s="1">
-        <v>6750000</v>
+        <v>500000</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D98" s="1">
-        <v>300900</v>
+        <v>450000</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="D99" s="1">
-        <v>314400</v>
+        <v>450000</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D100" s="1">
-        <v>500000</v>
+        <v>445000</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
@@ -4360,16 +4363,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D101" s="1">
-        <v>307500</v>
+        <v>375000</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
@@ -4377,16 +4380,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>429</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="D102" s="1">
-        <v>300900</v>
+        <v>345000</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
@@ -4394,16 +4397,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
       <c r="C103" t="s">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="D103" s="1">
-        <v>314000</v>
+        <v>330000</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -4411,16 +4414,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>426</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="D104" s="1">
-        <v>302400</v>
+        <v>330000</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -4428,33 +4431,33 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>440</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D105" s="1">
-        <v>1100000</v>
+        <v>325000</v>
       </c>
       <c r="E105" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="D106" s="1">
-        <v>303200</v>
+        <v>325000</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -4462,64 +4465,64 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D107" s="1">
-        <v>600000</v>
+        <v>320000</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="D108" s="1">
-        <v>325000</v>
+        <v>315000</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>438</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="D109" s="1">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D110" s="1">
         <v>300000</v>
@@ -4533,16 +4536,16 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D111" s="1">
-        <v>5500000</v>
+        <v>7166667</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4550,16 +4553,16 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="D112" s="1">
-        <v>305500</v>
+        <v>6750000</v>
       </c>
       <c r="E112" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4584,47 +4587,47 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D114" s="1">
-        <v>2600000</v>
+        <v>5500000</v>
       </c>
       <c r="E114" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D115" s="1">
-        <v>700000</v>
+        <v>5125000</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C116" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="D116" s="1">
-        <v>1000000</v>
+        <v>3916667</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -4632,33 +4635,33 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D117" s="1">
-        <v>2200000</v>
+        <v>2600000</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D118" s="1">
-        <v>700000</v>
+        <v>1500000</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
@@ -4666,33 +4669,33 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D119" s="1">
-        <v>18700000</v>
+        <v>1100000</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="D120" s="1">
-        <v>3900000</v>
+        <v>1000000</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4700,50 +4703,50 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D121" s="1">
-        <v>310000</v>
+        <v>900000</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D122" s="1">
-        <v>3825000</v>
+        <v>600000</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="D123" s="1">
-        <v>302000</v>
+        <v>600000</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
@@ -4751,33 +4754,33 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="D124" s="1">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="D125" s="1">
-        <v>313000</v>
+        <v>400000</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -4785,84 +4788,84 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="D126" s="1">
-        <v>313000</v>
+        <v>330000</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="D127" s="1">
-        <v>5350000</v>
+        <v>325000</v>
       </c>
       <c r="E127" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="D128" s="1">
-        <v>350000</v>
+        <v>314400</v>
       </c>
       <c r="E128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="D129" s="1">
-        <v>300000</v>
+        <v>314300</v>
       </c>
       <c r="E129" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C130" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="D130" s="1">
-        <v>305000</v>
+        <v>314000</v>
       </c>
       <c r="E130" t="s">
         <v>4</v>
@@ -4870,50 +4873,50 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="D131" s="1">
-        <v>800000</v>
+        <v>307500</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="D132" s="1">
-        <v>320000</v>
+        <v>305500</v>
       </c>
       <c r="E132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D133" s="1">
-        <v>845000</v>
+        <v>303200</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
@@ -4921,33 +4924,33 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="D134" s="1">
-        <v>6200000</v>
+        <v>303000</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D135" s="1">
-        <v>1000000</v>
+        <v>302400</v>
       </c>
       <c r="E135" t="s">
         <v>4</v>
@@ -4955,271 +4958,271 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="D136" s="1">
-        <v>600000</v>
+        <v>302200</v>
       </c>
       <c r="E136" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="D137" s="1">
-        <v>425000</v>
+        <v>302100</v>
       </c>
       <c r="E137" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="D138" s="1">
-        <v>520000</v>
+        <v>301100</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="D139" s="1">
-        <v>300000</v>
+        <v>300900</v>
       </c>
       <c r="E139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="D140" s="1">
-        <v>316000</v>
+        <v>300900</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D141" s="1">
-        <v>775000</v>
+        <v>300000</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>459</v>
       </c>
       <c r="C142" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D142" s="1">
-        <v>6400000</v>
+        <v>11850000</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>469</v>
       </c>
       <c r="C143" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
       <c r="D143" s="1">
-        <v>325000</v>
+        <v>8500000</v>
       </c>
       <c r="E143" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="C144" t="s">
-        <v>265</v>
+        <v>481</v>
       </c>
       <c r="D144" s="1">
-        <v>300000</v>
+        <v>6750000</v>
       </c>
       <c r="E144" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>266</v>
+        <v>476</v>
       </c>
       <c r="C145" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="D145" s="1">
-        <v>13000000</v>
+        <v>4500000</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D146" s="1">
-        <v>4250000</v>
+        <v>3200000</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>471</v>
       </c>
       <c r="C147" t="s">
-        <v>270</v>
+        <v>472</v>
       </c>
       <c r="D147" s="1">
-        <v>3100000</v>
+        <v>2625000</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>473</v>
       </c>
       <c r="C148" t="s">
-        <v>272</v>
+        <v>447</v>
       </c>
       <c r="D148" s="1">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>458</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D149" s="1">
-        <v>3000000</v>
+        <v>2150000</v>
       </c>
       <c r="E149" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="C150" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D150" s="1">
-        <v>7030000</v>
+        <v>1700000</v>
       </c>
       <c r="E150" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>478</v>
       </c>
       <c r="C151" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="D151" s="1">
-        <v>3500000</v>
+        <v>400000</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -5227,84 +5230,84 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
-        <v>278</v>
+        <v>479</v>
       </c>
       <c r="D152" s="1">
-        <v>375000</v>
+        <v>360000</v>
       </c>
       <c r="E152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>92</v>
+        <v>462</v>
       </c>
       <c r="C153" t="s">
-        <v>279</v>
+        <v>463</v>
       </c>
       <c r="D153" s="1">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="E153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
       <c r="D154" s="1">
-        <v>3000000</v>
+        <v>325000</v>
       </c>
       <c r="E154" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>282</v>
+        <v>461</v>
       </c>
       <c r="C155" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="D155" s="1">
-        <v>1550000</v>
+        <v>315000</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>284</v>
+        <v>450</v>
       </c>
       <c r="C156" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="D156" s="1">
-        <v>1000000</v>
+        <v>314000</v>
       </c>
       <c r="E156" t="s">
         <v>4</v>
@@ -5312,33 +5315,33 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>474</v>
       </c>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="D157" s="1">
-        <v>1200000</v>
+        <v>310000</v>
       </c>
       <c r="E157" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>287</v>
+        <v>467</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D158" s="1">
-        <v>2900000</v>
+        <v>309000</v>
       </c>
       <c r="E158" t="s">
         <v>4</v>
@@ -5346,50 +5349,50 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D159" s="1">
-        <v>350000</v>
+        <v>307000</v>
       </c>
       <c r="E159" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>289</v>
+        <v>477</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D160" s="1">
         <v>305000</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="C161" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D161" s="1">
-        <v>1200000</v>
+        <v>305000</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
@@ -5397,16 +5400,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>241</v>
+        <v>454</v>
       </c>
       <c r="C162" t="s">
-        <v>292</v>
+        <v>455</v>
       </c>
       <c r="D162" s="1">
-        <v>325000</v>
+        <v>303000</v>
       </c>
       <c r="E162" t="s">
         <v>4</v>
@@ -5414,67 +5417,67 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="C163" t="s">
-        <v>294</v>
+        <v>457</v>
       </c>
       <c r="D163" s="1">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="C164" t="s">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="D164" s="1">
-        <v>1725000</v>
+        <v>300000</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>297</v>
+        <v>475</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D165" s="1">
         <v>300000</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>465</v>
       </c>
       <c r="C166" t="s">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="D166" s="1">
-        <v>4250000</v>
+        <v>300000</v>
       </c>
       <c r="E166" t="s">
         <v>4</v>
@@ -5482,118 +5485,118 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="C167" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="D167" s="1">
-        <v>3500000</v>
+        <v>300000</v>
       </c>
       <c r="E167" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>374</v>
       </c>
       <c r="C168" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="D168" s="1">
-        <v>762500</v>
+        <v>11000000</v>
       </c>
       <c r="E168" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="C169" t="s">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="D169" s="1">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
       <c r="E169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="C170" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D170" s="1">
-        <v>1000000</v>
+        <v>4500000</v>
       </c>
       <c r="E170" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="D171" s="1">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="C172" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D172" s="1">
-        <v>600000</v>
+        <v>2750000</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="C173" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="D173" s="1">
-        <v>300000</v>
+        <v>2750000</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -5601,16 +5604,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D174" s="1">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
       <c r="E174" t="s">
         <v>4</v>
@@ -5618,16 +5621,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="C175" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="D175" s="1">
-        <v>300000</v>
+        <v>1500000</v>
       </c>
       <c r="E175" t="s">
         <v>4</v>
@@ -5635,84 +5638,84 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="D176" s="1">
-        <v>300000</v>
+        <v>900000</v>
       </c>
       <c r="E176" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C177" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D177" s="1">
-        <v>300000</v>
+        <v>775000</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="C178" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D178" s="1">
-        <v>5500000</v>
+        <v>625000</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="C179" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="D179" s="1">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="E179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C180" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="D180" s="1">
-        <v>325000</v>
+        <v>314000</v>
       </c>
       <c r="E180" t="s">
         <v>4</v>
@@ -5720,33 +5723,33 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="D181" s="1">
-        <v>325000</v>
+        <v>313000</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C182" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="D182" s="1">
-        <v>300000</v>
+        <v>311000</v>
       </c>
       <c r="E182" t="s">
         <v>4</v>
@@ -5754,50 +5757,50 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="C183" t="s">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="D183" s="1">
-        <v>500000</v>
+        <v>309500</v>
       </c>
       <c r="E183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C184" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="D184" s="1">
-        <v>300000</v>
+        <v>305500</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C185" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D185" s="1">
-        <v>300000</v>
+        <v>304500</v>
       </c>
       <c r="E185" t="s">
         <v>4</v>
@@ -5805,33 +5808,33 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C186" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="D186" s="1">
-        <v>6500000</v>
+        <v>304000</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="C187" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="D187" s="1">
-        <v>400000</v>
+        <v>303500</v>
       </c>
       <c r="E187" t="s">
         <v>4</v>
@@ -5839,81 +5842,81 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C188" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="D188" s="1">
-        <v>400000</v>
+        <v>302000</v>
       </c>
       <c r="E188" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C189" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="D189" s="1">
-        <v>300000</v>
+        <v>301000</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C190" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="D190" s="1">
         <v>300000</v>
       </c>
       <c r="E190" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="D191" s="1">
         <v>300000</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="D192" s="1">
         <v>300000</v>
@@ -5924,33 +5927,33 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B193" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="C193" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D193" s="1">
         <v>300000</v>
       </c>
       <c r="E193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B194" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="C194" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D194" s="1">
-        <v>300000</v>
+        <v>8750000</v>
       </c>
       <c r="E194" t="s">
         <v>4</v>
@@ -5958,16 +5961,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="C195" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="D195" s="1">
-        <v>300000</v>
+        <v>8000000</v>
       </c>
       <c r="E195" t="s">
         <v>4</v>
@@ -5975,16 +5978,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="C196" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D196" s="1">
-        <v>313000</v>
+        <v>6000000</v>
       </c>
       <c r="E196" t="s">
         <v>4</v>
@@ -5992,84 +5995,84 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="C197" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="D197" s="1">
-        <v>314000</v>
+        <v>4750000</v>
       </c>
       <c r="E197" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="C198" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="D198" s="1">
-        <v>6000000</v>
+        <v>4150000</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B199" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="C199" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="D199" s="1">
-        <v>304000</v>
+        <v>3400000</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="D200" s="1">
-        <v>302000</v>
+        <v>3000000</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="D201" s="1">
-        <v>309500</v>
+        <v>2750000</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
@@ -6077,16 +6080,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="D202" s="1">
-        <v>304500</v>
+        <v>2700000</v>
       </c>
       <c r="E202" t="s">
         <v>4</v>
@@ -6094,84 +6097,84 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="D203" s="1">
-        <v>300000</v>
+        <v>2525000</v>
       </c>
       <c r="E203" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="C204" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="D204" s="1">
-        <v>625000</v>
+        <v>2000000</v>
       </c>
       <c r="E204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="C205" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="D205" s="1">
-        <v>775000</v>
+        <v>1750000</v>
       </c>
       <c r="E205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B206" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="D206" s="1">
-        <v>303500</v>
+        <v>1000000</v>
       </c>
       <c r="E206" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B207" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D207" s="1">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="E207" t="s">
         <v>4</v>
@@ -6179,84 +6182,84 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C208" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="D208" s="1">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="E208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="C209" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="D209" s="1">
-        <v>305500</v>
+        <v>450000</v>
       </c>
       <c r="E209" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B210" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C210" t="s">
-        <v>53</v>
+        <v>406</v>
       </c>
       <c r="D210" s="1">
-        <v>3000000</v>
+        <v>365000</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>410</v>
       </c>
       <c r="C211" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="D211" s="1">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="C212" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="D212" s="1">
-        <v>1500000</v>
+        <v>335000</v>
       </c>
       <c r="E212" t="s">
         <v>4</v>
@@ -6264,33 +6267,33 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B213" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="C213" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="D213" s="1">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B214" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C214" t="s">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="D214" s="1">
-        <v>301000</v>
+        <v>330000</v>
       </c>
       <c r="E214" t="s">
         <v>4</v>
@@ -6298,135 +6301,135 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C215" t="s">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="D215" s="1">
-        <v>450000</v>
+        <v>325000</v>
       </c>
       <c r="E215" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="C216" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="D216" s="1">
-        <v>2750000</v>
+        <v>325000</v>
       </c>
       <c r="E216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B217" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="C217" t="s">
-        <v>323</v>
+        <v>404</v>
       </c>
       <c r="D217" s="1">
-        <v>4500000</v>
+        <v>315000</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C218" t="s">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="D218" s="1">
-        <v>900000</v>
+        <v>312500</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B219" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C219" t="s">
-        <v>55</v>
+        <v>376</v>
       </c>
       <c r="D219" s="1">
-        <v>11000000</v>
+        <v>302500</v>
       </c>
       <c r="E219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="C220" t="s">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="D220" s="1">
-        <v>2750000</v>
+        <v>15600000</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C221" t="s">
-        <v>377</v>
+        <v>53</v>
       </c>
       <c r="D221" s="1">
-        <v>311000</v>
+        <v>13000000</v>
       </c>
       <c r="E221" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>378</v>
+        <v>74</v>
       </c>
       <c r="C222" t="s">
-        <v>376</v>
+        <v>75</v>
       </c>
       <c r="D222" s="1">
-        <v>302500</v>
+        <v>12357143</v>
       </c>
       <c r="E222" t="s">
         <v>8</v>
@@ -6434,16 +6437,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>379</v>
+        <v>54</v>
       </c>
       <c r="C223" t="s">
         <v>55</v>
       </c>
       <c r="D223" s="1">
-        <v>500000</v>
+        <v>12000000</v>
       </c>
       <c r="E223" t="s">
         <v>4</v>
@@ -6451,16 +6454,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>380</v>
+        <v>58</v>
       </c>
       <c r="C224" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="D224" s="1">
-        <v>330000</v>
+        <v>11500000</v>
       </c>
       <c r="E224" t="s">
         <v>4</v>
@@ -6468,33 +6471,33 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>381</v>
+        <v>36</v>
       </c>
       <c r="C225" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D225" s="1">
-        <v>500000</v>
+        <v>11428571</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
       <c r="C226" t="s">
-        <v>383</v>
+        <v>63</v>
       </c>
       <c r="D226" s="1">
-        <v>2700000</v>
+        <v>10500000</v>
       </c>
       <c r="E226" t="s">
         <v>4</v>
@@ -6502,118 +6505,118 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>384</v>
+        <v>30</v>
       </c>
       <c r="C227" t="s">
-        <v>385</v>
+        <v>31</v>
       </c>
       <c r="D227" s="1">
-        <v>2525000</v>
+        <v>10100000</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="C228" t="s">
-        <v>387</v>
+        <v>61</v>
       </c>
       <c r="D228" s="1">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="E228" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="C229" t="s">
-        <v>389</v>
+        <v>51</v>
       </c>
       <c r="D229" s="1">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="C230" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="D230" s="1">
-        <v>4750000</v>
+        <v>6000000</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>392</v>
+        <v>32</v>
       </c>
       <c r="C231" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="D231" s="1">
-        <v>2750000</v>
+        <v>5500000</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="C232" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="D232" s="1">
-        <v>325000</v>
+        <v>5000000</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="C233" t="s">
-        <v>396</v>
+        <v>69</v>
       </c>
       <c r="D233" s="1">
-        <v>3400000</v>
+        <v>5000000</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
@@ -6621,33 +6624,33 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>397</v>
+        <v>70</v>
       </c>
       <c r="C234" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="D234" s="1">
-        <v>312500</v>
+        <v>4150000</v>
       </c>
       <c r="E234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="C235" t="s">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="D235" s="1">
-        <v>330000</v>
+        <v>3250000</v>
       </c>
       <c r="E235" t="s">
         <v>4</v>
@@ -6655,50 +6658,50 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>400</v>
+        <v>66</v>
       </c>
       <c r="C236" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="D236" s="1">
-        <v>4150000</v>
+        <v>2500000</v>
       </c>
       <c r="E236" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>56</v>
       </c>
       <c r="C237" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="D237" s="1">
-        <v>1750000</v>
+        <v>2400000</v>
       </c>
       <c r="E237" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="C238" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D238" s="1">
-        <v>6000000</v>
+        <v>2200000</v>
       </c>
       <c r="E238" t="s">
         <v>4</v>
@@ -6706,152 +6709,152 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="C239" t="s">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="D239" s="1">
-        <v>315000</v>
+        <v>1500000</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>405</v>
+        <v>26</v>
       </c>
       <c r="C240" t="s">
-        <v>406</v>
+        <v>27</v>
       </c>
       <c r="D240" s="1">
-        <v>365000</v>
+        <v>900000</v>
       </c>
       <c r="E240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>407</v>
+        <v>64</v>
       </c>
       <c r="C241" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="D241" s="1">
-        <v>450000</v>
+        <v>800000</v>
       </c>
       <c r="E241" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>408</v>
+        <v>34</v>
       </c>
       <c r="C242" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D242" s="1">
-        <v>8750000</v>
+        <v>750000</v>
       </c>
       <c r="E242" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B243" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="C243" t="s">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="D243" s="1">
-        <v>8000000</v>
+        <v>700000</v>
       </c>
       <c r="E243" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>410</v>
+        <v>48</v>
       </c>
       <c r="C244" t="s">
-        <v>411</v>
+        <v>49</v>
       </c>
       <c r="D244" s="1">
-        <v>340000</v>
+        <v>550000</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="C245" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="D245" s="1">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="E245" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="C246" t="s">
-        <v>415</v>
+        <v>44</v>
       </c>
       <c r="D246" s="1">
-        <v>325000</v>
+        <v>364100</v>
       </c>
       <c r="E246" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>416</v>
+        <v>28</v>
       </c>
       <c r="C247" t="s">
-        <v>417</v>
+        <v>29</v>
       </c>
       <c r="D247" s="1">
-        <v>335000</v>
+        <v>300000</v>
       </c>
       <c r="E247" t="s">
         <v>4</v>
@@ -6859,33 +6862,33 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>418</v>
+        <v>525</v>
       </c>
       <c r="C248" t="s">
-        <v>419</v>
+        <v>526</v>
       </c>
       <c r="D248" s="1">
-        <v>700000</v>
+        <v>11666667</v>
       </c>
       <c r="E248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>420</v>
+        <v>529</v>
       </c>
       <c r="C249" t="s">
-        <v>218</v>
+        <v>530</v>
       </c>
       <c r="D249" s="1">
-        <v>445000</v>
+        <v>6000000</v>
       </c>
       <c r="E249" t="s">
         <v>4</v>
@@ -6893,33 +6896,33 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>421</v>
+        <v>547</v>
       </c>
       <c r="C250" t="s">
-        <v>422</v>
+        <v>344</v>
       </c>
       <c r="D250" s="1">
-        <v>8250000</v>
+        <v>5125000</v>
       </c>
       <c r="E250" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B251" t="s">
-        <v>423</v>
+        <v>522</v>
       </c>
       <c r="C251" t="s">
-        <v>323</v>
+        <v>104</v>
       </c>
       <c r="D251" s="1">
-        <v>315000</v>
+        <v>3675000</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
@@ -6927,33 +6930,33 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B252" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="C252" t="s">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="D252" s="1">
-        <v>450000</v>
+        <v>3216667</v>
       </c>
       <c r="E252" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B253" t="s">
-        <v>425</v>
+        <v>236</v>
       </c>
       <c r="C253" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D253" s="1">
-        <v>375000</v>
+        <v>2700000</v>
       </c>
       <c r="E253" t="s">
         <v>4</v>
@@ -6961,16 +6964,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B254" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="C254" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="D254" s="1">
-        <v>330000</v>
+        <v>2650000</v>
       </c>
       <c r="E254" t="s">
         <v>4</v>
@@ -6978,67 +6981,67 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B255" t="s">
-        <v>427</v>
+        <v>538</v>
       </c>
       <c r="C255" t="s">
-        <v>258</v>
+        <v>539</v>
       </c>
       <c r="D255" s="1">
-        <v>1400000</v>
+        <v>2175000</v>
       </c>
       <c r="E255" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B256" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="C256" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="D256" s="1">
-        <v>675000</v>
+        <v>1887500</v>
       </c>
       <c r="E256" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B257" t="s">
-        <v>429</v>
+        <v>534</v>
       </c>
       <c r="C257" t="s">
-        <v>430</v>
+        <v>113</v>
       </c>
       <c r="D257" s="1">
-        <v>345000</v>
+        <v>1750000</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B258" t="s">
-        <v>431</v>
+        <v>545</v>
       </c>
       <c r="C258" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D258" s="1">
-        <v>4250000</v>
+        <v>1700000</v>
       </c>
       <c r="E258" t="s">
         <v>4</v>
@@ -7046,50 +7049,50 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B259" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="C259" t="s">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="D259" s="1">
-        <v>6250000</v>
+        <v>1200000</v>
       </c>
       <c r="E259" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B260" t="s">
-        <v>191</v>
+        <v>523</v>
       </c>
       <c r="C260" t="s">
-        <v>226</v>
+        <v>524</v>
       </c>
       <c r="D260" s="1">
-        <v>4200000</v>
+        <v>1065000</v>
       </c>
       <c r="E260" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
       <c r="C261" t="s">
-        <v>435</v>
+        <v>549</v>
       </c>
       <c r="D261" s="1">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="E261" t="s">
         <v>4</v>
@@ -7097,16 +7100,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B262" t="s">
-        <v>436</v>
+        <v>533</v>
       </c>
       <c r="C262" t="s">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="D262" s="1">
-        <v>330000</v>
+        <v>750000</v>
       </c>
       <c r="E262" t="s">
         <v>4</v>
@@ -7114,16 +7117,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B263" t="s">
-        <v>438</v>
+        <v>43</v>
       </c>
       <c r="C263" t="s">
-        <v>344</v>
+        <v>535</v>
       </c>
       <c r="D263" s="1">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="E263" t="s">
         <v>5</v>
@@ -7131,16 +7134,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B264" t="s">
-        <v>328</v>
+        <v>531</v>
       </c>
       <c r="C264" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="D264" s="1">
-        <v>9000000</v>
+        <v>350000</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -7148,118 +7151,118 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B265" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="C265" t="s">
-        <v>173</v>
+        <v>537</v>
       </c>
       <c r="D265" s="1">
-        <v>325000</v>
+        <v>335000</v>
       </c>
       <c r="E265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B266" t="s">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>223</v>
       </c>
       <c r="D266" s="1">
-        <v>450000</v>
+        <v>334500</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B267" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="C267" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D267" s="1">
-        <v>320000</v>
+        <v>331000</v>
       </c>
       <c r="E267" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>544</v>
       </c>
       <c r="C268" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D268" s="1">
-        <v>300000</v>
+        <v>322000</v>
       </c>
       <c r="E268" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B269" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="C269" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="D269" s="1">
-        <v>5000000</v>
+        <v>316000</v>
       </c>
       <c r="E269" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>527</v>
       </c>
       <c r="C270" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="D270" s="1">
-        <v>5000000</v>
+        <v>307500</v>
       </c>
       <c r="E270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B271" t="s">
-        <v>168</v>
+        <v>518</v>
       </c>
       <c r="C271" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="D271" s="1">
-        <v>600000</v>
+        <v>304000</v>
       </c>
       <c r="E271" t="s">
         <v>4</v>
@@ -7267,33 +7270,33 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B272" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="C272" t="s">
-        <v>447</v>
+        <v>104</v>
       </c>
       <c r="D272" s="1">
-        <v>325000</v>
+        <v>300000</v>
       </c>
       <c r="E272" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B273" t="s">
-        <v>448</v>
+        <v>543</v>
       </c>
       <c r="C273" t="s">
-        <v>449</v>
+        <v>55</v>
       </c>
       <c r="D273" s="1">
-        <v>575000</v>
+        <v>300000</v>
       </c>
       <c r="E273" t="s">
         <v>4</v>
@@ -7301,16 +7304,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B274" t="s">
-        <v>28</v>
+        <v>510</v>
       </c>
       <c r="C274" t="s">
-        <v>124</v>
+        <v>511</v>
       </c>
       <c r="D274" s="1">
-        <v>3200000</v>
+        <v>8000000</v>
       </c>
       <c r="E274" t="s">
         <v>4</v>
@@ -7318,67 +7321,67 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B275" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="C275" t="s">
-        <v>97</v>
+        <v>485</v>
       </c>
       <c r="D275" s="1">
-        <v>314000</v>
+        <v>8000000</v>
       </c>
       <c r="E275" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B276" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="C276" t="s">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="D276" s="1">
-        <v>325000</v>
+        <v>7700000</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B277" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="C277" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="D277" s="1">
-        <v>300000</v>
+        <v>7416667</v>
       </c>
       <c r="E277" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B278" t="s">
-        <v>454</v>
+        <v>183</v>
       </c>
       <c r="C278" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="D278" s="1">
-        <v>303000</v>
+        <v>6875000</v>
       </c>
       <c r="E278" t="s">
         <v>4</v>
@@ -7386,50 +7389,50 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B279" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="C279" t="s">
-        <v>457</v>
+        <v>71</v>
       </c>
       <c r="D279" s="1">
-        <v>300000</v>
+        <v>6725000</v>
       </c>
       <c r="E279" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B280" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="C280" t="s">
-        <v>208</v>
+        <v>479</v>
       </c>
       <c r="D280" s="1">
-        <v>2150000</v>
+        <v>6500000</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B281" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="C281" t="s">
-        <v>144</v>
+        <v>514</v>
       </c>
       <c r="D281" s="1">
-        <v>11850000</v>
+        <v>4666667</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -7437,67 +7440,67 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B282" t="s">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="C282" t="s">
-        <v>212</v>
+        <v>498</v>
       </c>
       <c r="D282" s="1">
-        <v>300000</v>
+        <v>4000000</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B283" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="C283" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="D283" s="1">
-        <v>315000</v>
+        <v>3983333</v>
       </c>
       <c r="E283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B284" t="s">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="C284" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="D284" s="1">
-        <v>340000</v>
+        <v>3500000</v>
       </c>
       <c r="E284" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B285" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="C285" t="s">
-        <v>294</v>
+        <v>509</v>
       </c>
       <c r="D285" s="1">
-        <v>305000</v>
+        <v>3500000</v>
       </c>
       <c r="E285" t="s">
         <v>4</v>
@@ -7505,118 +7508,118 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B286" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="C286" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="D286" s="1">
-        <v>300000</v>
+        <v>3300000</v>
       </c>
       <c r="E286" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B287" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C287" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="D287" s="1">
-        <v>309000</v>
+        <v>3150000</v>
       </c>
       <c r="E287" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B288" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="C288" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="D288" s="1">
-        <v>1700000</v>
+        <v>2500000</v>
       </c>
       <c r="E288" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B289" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C289" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D289" s="1">
-        <v>8500000</v>
+        <v>1800000</v>
       </c>
       <c r="E289" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B290" t="s">
-        <v>471</v>
+        <v>182</v>
       </c>
       <c r="C290" t="s">
-        <v>472</v>
+        <v>122</v>
       </c>
       <c r="D290" s="1">
-        <v>2625000</v>
+        <v>1000000</v>
       </c>
       <c r="E290" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B291" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="C291" t="s">
-        <v>447</v>
+        <v>246</v>
       </c>
       <c r="D291" s="1">
-        <v>2500000</v>
+        <v>750000</v>
       </c>
       <c r="E291" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B292" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="C292" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="D292" s="1">
-        <v>310000</v>
+        <v>600000</v>
       </c>
       <c r="E292" t="s">
         <v>6</v>
@@ -7624,50 +7627,50 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B293" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C293" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="D293" s="1">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="E293" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B294" t="s">
-        <v>205</v>
+        <v>506</v>
       </c>
       <c r="C294" t="s">
-        <v>102</v>
+        <v>507</v>
       </c>
       <c r="D294" s="1">
-        <v>307000</v>
+        <v>440000</v>
       </c>
       <c r="E294" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B295" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C295" t="s">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="D295" s="1">
-        <v>4500000</v>
+        <v>425000</v>
       </c>
       <c r="E295" t="s">
         <v>4</v>
@@ -7675,16 +7678,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B296" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C296" t="s">
-        <v>38</v>
+        <v>489</v>
       </c>
       <c r="D296" s="1">
-        <v>305000</v>
+        <v>400000</v>
       </c>
       <c r="E296" t="s">
         <v>4</v>
@@ -7692,33 +7695,33 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B297" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C297" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
       <c r="D297" s="1">
-        <v>400000</v>
+        <v>325000</v>
       </c>
       <c r="E297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B298" t="s">
-        <v>167</v>
+        <v>499</v>
       </c>
       <c r="C298" t="s">
-        <v>479</v>
+        <v>107</v>
       </c>
       <c r="D298" s="1">
-        <v>360000</v>
+        <v>302500</v>
       </c>
       <c r="E298" t="s">
         <v>4</v>
@@ -7726,16 +7729,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B299" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="C299" t="s">
-        <v>481</v>
+        <v>38</v>
       </c>
       <c r="D299" s="1">
-        <v>6750000</v>
+        <v>300000</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -7760,237 +7763,237 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B301" t="s">
-        <v>484</v>
+        <v>328</v>
       </c>
       <c r="C301" t="s">
-        <v>485</v>
+        <v>329</v>
       </c>
       <c r="D301" s="1">
-        <v>8000000</v>
+        <v>6500000</v>
       </c>
       <c r="E301" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B302" t="s">
-        <v>486</v>
+        <v>317</v>
       </c>
       <c r="C302" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="D302" s="1">
-        <v>500000</v>
+        <v>5500000</v>
       </c>
       <c r="E302" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B303" t="s">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="C303" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="D303" s="1">
-        <v>7416667</v>
+        <v>600000</v>
       </c>
       <c r="E303" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B304" t="s">
-        <v>488</v>
+        <v>191</v>
       </c>
       <c r="C304" t="s">
-        <v>489</v>
+        <v>188</v>
       </c>
       <c r="D304" s="1">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="E304" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="C305" t="s">
-        <v>71</v>
+        <v>331</v>
       </c>
       <c r="D305" s="1">
-        <v>6725000</v>
+        <v>400000</v>
       </c>
       <c r="E305" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>491</v>
+        <v>332</v>
       </c>
       <c r="C306" t="s">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="D306" s="1">
-        <v>750000</v>
+        <v>400000</v>
       </c>
       <c r="E306" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B307" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="C307" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="D307" s="1">
-        <v>1000000</v>
+        <v>325000</v>
       </c>
       <c r="E307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B308" t="s">
-        <v>492</v>
+        <v>321</v>
       </c>
       <c r="C308" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="D308" s="1">
-        <v>425000</v>
+        <v>325000</v>
       </c>
       <c r="E308" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B309" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="C309" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
       <c r="D309" s="1">
-        <v>6875000</v>
+        <v>300000</v>
       </c>
       <c r="E309" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B310" t="s">
-        <v>494</v>
+        <v>318</v>
       </c>
       <c r="C310" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="D310" s="1">
-        <v>2500000</v>
+        <v>300000</v>
       </c>
       <c r="E310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B311" t="s">
-        <v>495</v>
+        <v>324</v>
       </c>
       <c r="C311" t="s">
-        <v>496</v>
+        <v>325</v>
       </c>
       <c r="D311" s="1">
-        <v>1800000</v>
+        <v>300000</v>
       </c>
       <c r="E311" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B312" t="s">
-        <v>497</v>
+        <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D312" s="1">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="E312" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="C313" t="s">
-        <v>498</v>
+        <v>310</v>
       </c>
       <c r="D313" s="1">
-        <v>4000000</v>
+        <v>300000</v>
       </c>
       <c r="E313" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B314" t="s">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="C314" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D314" s="1">
-        <v>302500</v>
+        <v>300000</v>
       </c>
       <c r="E314" t="s">
         <v>4</v>
@@ -7998,33 +8001,33 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B315" t="s">
-        <v>500</v>
+        <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="D315" s="1">
-        <v>3150000</v>
+        <v>300000</v>
       </c>
       <c r="E315" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B316" t="s">
-        <v>501</v>
+        <v>96</v>
       </c>
       <c r="C316" t="s">
-        <v>502</v>
+        <v>323</v>
       </c>
       <c r="D316" s="1">
-        <v>325000</v>
+        <v>300000</v>
       </c>
       <c r="E316" t="s">
         <v>4</v>
@@ -8032,16 +8035,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B317" t="s">
-        <v>503</v>
+        <v>336</v>
       </c>
       <c r="C317" t="s">
-        <v>479</v>
+        <v>61</v>
       </c>
       <c r="D317" s="1">
-        <v>6500000</v>
+        <v>300000</v>
       </c>
       <c r="E317" t="s">
         <v>4</v>
@@ -8049,16 +8052,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B318" t="s">
-        <v>504</v>
+        <v>312</v>
       </c>
       <c r="C318" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="D318" s="1">
-        <v>3983333</v>
+        <v>300000</v>
       </c>
       <c r="E318" t="s">
         <v>4</v>
@@ -8066,33 +8069,33 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>505</v>
+        <v>339</v>
       </c>
       <c r="C319" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D319" s="1">
-        <v>7700000</v>
+        <v>300000</v>
       </c>
       <c r="E319" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B320" t="s">
-        <v>506</v>
+        <v>311</v>
       </c>
       <c r="C320" t="s">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="D320" s="1">
-        <v>440000</v>
+        <v>300000</v>
       </c>
       <c r="E320" t="s">
         <v>4</v>
@@ -8100,16 +8103,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B321" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
       <c r="C321" t="s">
-        <v>509</v>
+        <v>327</v>
       </c>
       <c r="D321" s="1">
-        <v>3500000</v>
+        <v>300000</v>
       </c>
       <c r="E321" t="s">
         <v>4</v>
@@ -8117,16 +8120,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B322" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C322" t="s">
-        <v>511</v>
+        <v>341</v>
       </c>
       <c r="D322" s="1">
-        <v>8000000</v>
+        <v>300000</v>
       </c>
       <c r="E322" t="s">
         <v>4</v>
@@ -8134,101 +8137,101 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B323" t="s">
-        <v>512</v>
+        <v>306</v>
       </c>
       <c r="C323" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="D323" s="1">
         <v>300000</v>
       </c>
       <c r="E323" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B324" t="s">
-        <v>513</v>
+        <v>335</v>
       </c>
       <c r="C324" t="s">
-        <v>514</v>
+        <v>195</v>
       </c>
       <c r="D324" s="1">
-        <v>4666667</v>
+        <v>300000</v>
       </c>
       <c r="E324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B325" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="C325" t="s">
-        <v>515</v>
+        <v>146</v>
       </c>
       <c r="D325" s="1">
-        <v>3500000</v>
+        <v>300000</v>
       </c>
       <c r="E325" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B326" t="s">
-        <v>516</v>
+        <v>199</v>
       </c>
       <c r="C326" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="D326" s="1">
-        <v>3300000</v>
+        <v>22000000</v>
       </c>
       <c r="E326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B327" t="s">
-        <v>518</v>
+        <v>139</v>
       </c>
       <c r="C327" t="s">
-        <v>519</v>
+        <v>27</v>
       </c>
       <c r="D327" s="1">
-        <v>304000</v>
+        <v>13000000</v>
       </c>
       <c r="E327" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B328" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="C328" t="s">
-        <v>135</v>
+        <v>573</v>
       </c>
       <c r="D328" s="1">
-        <v>331000</v>
+        <v>13000000</v>
       </c>
       <c r="E328" t="s">
         <v>4</v>
@@ -8236,16 +8239,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B329" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C329" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="D329" s="1">
-        <v>300000</v>
+        <v>9150000</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -8253,84 +8256,84 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B330" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="C330" t="s">
-        <v>104</v>
+        <v>571</v>
       </c>
       <c r="D330" s="1">
-        <v>3675000</v>
+        <v>9000000</v>
       </c>
       <c r="E330" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B331" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="C331" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="D331" s="1">
-        <v>1065000</v>
+        <v>7000000</v>
       </c>
       <c r="E331" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B332" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="C332" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="D332" s="1">
-        <v>11666667</v>
+        <v>4500000</v>
       </c>
       <c r="E332" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B333" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="C333" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="D333" s="1">
-        <v>307500</v>
+        <v>3366667</v>
       </c>
       <c r="E333" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B334" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="C334" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="D334" s="1">
-        <v>316000</v>
+        <v>3250000</v>
       </c>
       <c r="E334" t="s">
         <v>4</v>
@@ -8338,16 +8341,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B335" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="C335" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="D335" s="1">
-        <v>6000000</v>
+        <v>2500000</v>
       </c>
       <c r="E335" t="s">
         <v>4</v>
@@ -8355,118 +8358,118 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B336" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="C336" t="s">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D336" s="1">
-        <v>350000</v>
+        <v>2500000</v>
       </c>
       <c r="E336" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B337" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="C337" t="s">
-        <v>35</v>
+        <v>555</v>
       </c>
       <c r="D337" s="1">
-        <v>750000</v>
+        <v>1837500</v>
       </c>
       <c r="E337" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B338" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="C338" t="s">
-        <v>113</v>
+        <v>435</v>
       </c>
       <c r="D338" s="1">
-        <v>1750000</v>
+        <v>1500000</v>
       </c>
       <c r="E338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B339" t="s">
-        <v>361</v>
+        <v>581</v>
       </c>
       <c r="C339" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D339" s="1">
-        <v>1887500</v>
+        <v>1300000</v>
       </c>
       <c r="E339" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B340" t="s">
-        <v>236</v>
+        <v>574</v>
       </c>
       <c r="C340" t="s">
-        <v>111</v>
+        <v>575</v>
       </c>
       <c r="D340" s="1">
-        <v>2700000</v>
+        <v>1300000</v>
       </c>
       <c r="E340" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B341" t="s">
-        <v>43</v>
+        <v>559</v>
       </c>
       <c r="C341" t="s">
-        <v>535</v>
+        <v>156</v>
       </c>
       <c r="D341" s="1">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="E341" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B342" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="C342" t="s">
-        <v>537</v>
+        <v>109</v>
       </c>
       <c r="D342" s="1">
-        <v>335000</v>
+        <v>900000</v>
       </c>
       <c r="E342" t="s">
         <v>4</v>
@@ -8474,84 +8477,84 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C343" t="s">
-        <v>539</v>
+        <v>135</v>
       </c>
       <c r="D343" s="1">
-        <v>2175000</v>
+        <v>750000</v>
       </c>
       <c r="E343" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B344" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C344" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="D344" s="1">
-        <v>3216667</v>
+        <v>750000</v>
       </c>
       <c r="E344" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B345" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="C345" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D345" s="1">
-        <v>334500</v>
+        <v>750000</v>
       </c>
       <c r="E345" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B346" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="C346" t="s">
-        <v>218</v>
+        <v>579</v>
       </c>
       <c r="D346" s="1">
-        <v>2650000</v>
+        <v>600000</v>
       </c>
       <c r="E346" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B347" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="C347" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D347" s="1">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E347" t="s">
         <v>4</v>
@@ -8559,84 +8562,84 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="C348" t="s">
-        <v>97</v>
+        <v>569</v>
       </c>
       <c r="D348" s="1">
-        <v>322000</v>
+        <v>550000</v>
       </c>
       <c r="E348" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="C349" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="D349" s="1">
-        <v>1700000</v>
+        <v>440000</v>
       </c>
       <c r="E349" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B350" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="C350" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D350" s="1">
-        <v>1200000</v>
+        <v>415000</v>
       </c>
       <c r="E350" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B351" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="C351" t="s">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="D351" s="1">
-        <v>5125000</v>
+        <v>327500</v>
       </c>
       <c r="E351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="C352" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="D352" s="1">
-        <v>1000000</v>
+        <v>302500</v>
       </c>
       <c r="E352" t="s">
         <v>4</v>
@@ -8664,16 +8667,16 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>552</v>
+        <v>183</v>
       </c>
       <c r="C354" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="D354" s="1">
         <v>300000</v>
       </c>
       <c r="E354" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8681,47 +8684,47 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C355" t="s">
-        <v>109</v>
+        <v>526</v>
       </c>
       <c r="D355" s="1">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="E355" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B356" t="s">
-        <v>554</v>
+        <v>225</v>
       </c>
       <c r="C356" t="s">
-        <v>555</v>
+        <v>226</v>
       </c>
       <c r="D356" s="1">
-        <v>1837500</v>
+        <v>18700000</v>
       </c>
       <c r="E356" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>556</v>
+        <v>249</v>
       </c>
       <c r="C357" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D357" s="1">
-        <v>9150000</v>
+        <v>6200000</v>
       </c>
       <c r="E357" t="s">
         <v>8</v>
@@ -8729,16 +8732,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>557</v>
+        <v>238</v>
       </c>
       <c r="C358" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="D358" s="1">
-        <v>600000</v>
+        <v>5350000</v>
       </c>
       <c r="E358" t="s">
         <v>4</v>
@@ -8746,16 +8749,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B359" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="C359" t="s">
-        <v>558</v>
+        <v>228</v>
       </c>
       <c r="D359" s="1">
-        <v>300000</v>
+        <v>3900000</v>
       </c>
       <c r="E359" t="s">
         <v>4</v>
@@ -8763,33 +8766,33 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>559</v>
+        <v>230</v>
       </c>
       <c r="C360" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="D360" s="1">
-        <v>1000000</v>
+        <v>3825000</v>
       </c>
       <c r="E360" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B361" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="C361" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D361" s="1">
-        <v>13000000</v>
+        <v>2200000</v>
       </c>
       <c r="E361" t="s">
         <v>8</v>
@@ -8797,186 +8800,186 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>560</v>
+        <v>251</v>
       </c>
       <c r="C362" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="D362" s="1">
-        <v>750000</v>
+        <v>1000000</v>
       </c>
       <c r="E362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B363" t="s">
-        <v>561</v>
+        <v>221</v>
       </c>
       <c r="C363" t="s">
-        <v>562</v>
+        <v>55</v>
       </c>
       <c r="D363" s="1">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="E363" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B364" t="s">
-        <v>563</v>
+        <v>248</v>
       </c>
       <c r="C364" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="D364" s="1">
-        <v>750000</v>
+        <v>845000</v>
       </c>
       <c r="E364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>564</v>
+        <v>245</v>
       </c>
       <c r="C365" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="D365" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="E365" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B366" t="s">
-        <v>565</v>
+        <v>259</v>
       </c>
       <c r="C366" t="s">
-        <v>566</v>
+        <v>38</v>
       </c>
       <c r="D366" s="1">
-        <v>302500</v>
+        <v>775000</v>
       </c>
       <c r="E366" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>567</v>
+        <v>224</v>
       </c>
       <c r="C367" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="D367" s="1">
-        <v>327500</v>
+        <v>700000</v>
       </c>
       <c r="E367" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>568</v>
+        <v>219</v>
       </c>
       <c r="C368" t="s">
-        <v>569</v>
+        <v>220</v>
       </c>
       <c r="D368" s="1">
-        <v>550000</v>
+        <v>700000</v>
       </c>
       <c r="E368" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B369" t="s">
-        <v>570</v>
+        <v>253</v>
       </c>
       <c r="C369" t="s">
-        <v>571</v>
+        <v>71</v>
       </c>
       <c r="D369" s="1">
-        <v>9000000</v>
+        <v>600000</v>
       </c>
       <c r="E369" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B370" t="s">
-        <v>572</v>
+        <v>233</v>
       </c>
       <c r="C370" t="s">
-        <v>573</v>
+        <v>104</v>
       </c>
       <c r="D370" s="1">
-        <v>13000000</v>
+        <v>600000</v>
       </c>
       <c r="E370" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B371" t="s">
-        <v>574</v>
+        <v>72</v>
       </c>
       <c r="C371" t="s">
-        <v>575</v>
+        <v>255</v>
       </c>
       <c r="D371" s="1">
-        <v>1300000</v>
+        <v>520000</v>
       </c>
       <c r="E371" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B372" t="s">
-        <v>576</v>
+        <v>167</v>
       </c>
       <c r="C372" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D372" s="1">
-        <v>3250000</v>
+        <v>425000</v>
       </c>
       <c r="E372" t="s">
         <v>4</v>
@@ -8984,101 +8987,101 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B373" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C373" t="s">
-        <v>577</v>
+        <v>156</v>
       </c>
       <c r="D373" s="1">
-        <v>22000000</v>
+        <v>350000</v>
       </c>
       <c r="E373" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B374" t="s">
-        <v>578</v>
+        <v>247</v>
       </c>
       <c r="C374" t="s">
-        <v>579</v>
+        <v>173</v>
       </c>
       <c r="D374" s="1">
-        <v>600000</v>
+        <v>320000</v>
       </c>
       <c r="E374" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B375" t="s">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="C375" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="D375" s="1">
-        <v>750000</v>
+        <v>316000</v>
       </c>
       <c r="E375" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B376" t="s">
-        <v>581</v>
+        <v>234</v>
       </c>
       <c r="C376" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="D376" s="1">
-        <v>1300000</v>
+        <v>313000</v>
       </c>
       <c r="E376" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B377" t="s">
-        <v>582</v>
+        <v>236</v>
       </c>
       <c r="C377" t="s">
-        <v>583</v>
+        <v>237</v>
       </c>
       <c r="D377" s="1">
-        <v>4500000</v>
+        <v>313000</v>
       </c>
       <c r="E377" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B378" t="s">
-        <v>584</v>
+        <v>229</v>
       </c>
       <c r="C378" t="s">
-        <v>585</v>
+        <v>216</v>
       </c>
       <c r="D378" s="1">
-        <v>2500000</v>
+        <v>310000</v>
       </c>
       <c r="E378" t="s">
         <v>4</v>
@@ -9086,16 +9089,16 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B379" t="s">
-        <v>586</v>
+        <v>243</v>
       </c>
       <c r="C379" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="D379" s="1">
-        <v>2500000</v>
+        <v>305000</v>
       </c>
       <c r="E379" t="s">
         <v>4</v>
@@ -9103,16 +9106,16 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B380" t="s">
-        <v>587</v>
+        <v>232</v>
       </c>
       <c r="C380" t="s">
-        <v>435</v>
+        <v>218</v>
       </c>
       <c r="D380" s="1">
-        <v>1500000</v>
+        <v>302000</v>
       </c>
       <c r="E380" t="s">
         <v>4</v>
@@ -9120,39 +9123,48 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B381" t="s">
-        <v>480</v>
+        <v>256</v>
       </c>
       <c r="C381" t="s">
-        <v>588</v>
+        <v>257</v>
       </c>
       <c r="D381" s="1">
-        <v>415000</v>
+        <v>300000</v>
       </c>
       <c r="E381" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B382" t="s">
-        <v>589</v>
+        <v>241</v>
       </c>
       <c r="C382" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="D382" s="1">
-        <v>3366667</v>
+        <v>300000</v>
       </c>
       <c r="E382" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E382" xr:uid="{A20F5077-3FF2-4F40-A07C-157B124CCCED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E382">
+      <sortCondition ref="A2:A382"/>
+      <sortCondition descending="1" ref="D2:D382"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E383">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Project 2/exercise_albb-salaries-2003.xlsx
+++ b/Project 2/exercise_albb-salaries-2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0DF6E0-1A0E-4600-A04D-57BD53FE3727}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB62928B-59E9-4448-ABFD-AB958AD052F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'albb-salaries-2003'!$A$1:$E$382</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2646,10 +2654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E382"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,7 +2670,7 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2694,8 +2703,12 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <f>AVERAGE(D2:D273)</f>
+        <v>2575927.0183823528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2763,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2899,7 +2912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2933,7 +2946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2950,7 +2963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3120,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -3256,7 +3269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3307,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +3388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3426,7 +3439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3460,7 +3473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -3528,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -3545,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3562,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +3592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3596,7 +3609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -3613,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3647,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3681,7 +3694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3749,7 +3762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3817,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3834,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3851,7 +3864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3885,7 +3898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -3987,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4004,7 +4017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4021,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4038,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4072,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -4123,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -4157,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -4174,7 +4187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -4191,7 +4204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4225,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -4310,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -4327,7 +4340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -4361,7 +4374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -4378,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -4395,7 +4408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -4412,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -4429,7 +4442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -4446,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -4463,7 +4476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -4480,7 +4493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4497,7 +4510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -4514,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -4531,7 +4544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -4548,7 +4561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -4565,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -4616,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -4633,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -4650,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -4667,7 +4680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -4684,7 +4697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -4701,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -4769,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -4786,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -4803,7 +4816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -4820,7 +4833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -4837,7 +4850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -4854,7 +4867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -4888,7 +4901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -4905,7 +4918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -4922,7 +4935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -4956,7 +4969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -4973,7 +4986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -4990,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5024,7 +5037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -5041,7 +5054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5058,7 +5071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -5075,7 +5088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -5092,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -5109,7 +5122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -5126,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -5143,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -5160,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -5177,7 +5190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -5194,7 +5207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -5211,7 +5224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -5228,7 +5241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5245,7 +5258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -5262,7 +5275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -5296,7 +5309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -5313,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -5330,7 +5343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -5347,7 +5360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -5364,7 +5377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -5398,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -5415,7 +5428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -5432,7 +5445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -5449,7 +5462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -5466,7 +5479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -5483,7 +5496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -5500,7 +5513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -5517,7 +5530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -5534,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -5551,7 +5564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -5585,7 +5598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -5602,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -5619,7 +5632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -5653,7 +5666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -5670,7 +5683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -5687,7 +5700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -5704,7 +5717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -5738,7 +5751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -5755,7 +5768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -5772,7 +5785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -5789,7 +5802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -5806,7 +5819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -5840,7 +5853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -5857,7 +5870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -5891,7 +5904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -5908,7 +5921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -5942,7 +5955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -5959,7 +5972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -5976,7 +5989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -5993,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -6010,7 +6023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -6027,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -6044,7 +6057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -6061,7 +6074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -6095,7 +6108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -6129,7 +6142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -6146,7 +6159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>18</v>
       </c>
@@ -6163,7 +6176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>18</v>
       </c>
@@ -6180,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>18</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>18</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -6248,7 +6261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>18</v>
       </c>
@@ -6265,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>18</v>
       </c>
@@ -6282,7 +6295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>18</v>
       </c>
@@ -6299,7 +6312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>18</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>18</v>
       </c>
@@ -6333,7 +6346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>18</v>
       </c>
@@ -6350,7 +6363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>18</v>
       </c>
@@ -6367,7 +6380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -6401,7 +6414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -6418,7 +6431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -6435,7 +6448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -6452,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -6469,7 +6482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -6486,7 +6499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -6503,7 +6516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -6520,7 +6533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -6537,7 +6550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -6571,7 +6584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -6588,7 +6601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -6605,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -6622,7 +6635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -6639,7 +6652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -6656,7 +6669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -6673,7 +6686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -6707,7 +6720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -6724,7 +6737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -6741,7 +6754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -6758,7 +6771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -6775,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -6792,7 +6805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -6809,7 +6822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -6826,7 +6839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -6843,7 +6856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -6860,7 +6873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>22</v>
       </c>
@@ -6911,7 +6924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -6979,7 +6992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>22</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -7013,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>22</v>
       </c>
@@ -7047,7 +7060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>22</v>
       </c>
@@ -7064,7 +7077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>22</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -7132,7 +7145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -7166,7 +7179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -7200,7 +7213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>22</v>
       </c>
@@ -7234,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>22</v>
       </c>
@@ -7268,7 +7281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -7302,7 +7315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>21</v>
       </c>
@@ -7319,7 +7332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -7336,7 +7349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>21</v>
       </c>
@@ -7353,7 +7366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>21</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>21</v>
       </c>
@@ -7387,7 +7400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -7404,7 +7417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>21</v>
       </c>
@@ -7421,7 +7434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>21</v>
       </c>
@@ -7438,7 +7451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -7455,7 +7468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>21</v>
       </c>
@@ -7472,7 +7485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>21</v>
       </c>
@@ -7489,7 +7502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>21</v>
       </c>
@@ -7506,7 +7519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -7523,7 +7536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>21</v>
       </c>
@@ -7540,7 +7553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>21</v>
       </c>
@@ -7557,7 +7570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>21</v>
       </c>
@@ -7574,7 +7587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>21</v>
       </c>
@@ -7591,7 +7604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>21</v>
       </c>
@@ -7608,7 +7621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>21</v>
       </c>
@@ -7625,7 +7638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>21</v>
       </c>
@@ -7642,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -7659,7 +7672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>21</v>
       </c>
@@ -7676,7 +7689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -7693,7 +7706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>21</v>
       </c>
@@ -7710,7 +7723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>21</v>
       </c>
@@ -7727,7 +7740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>21</v>
       </c>
@@ -7744,7 +7757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>21</v>
       </c>
@@ -7761,7 +7774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -7778,7 +7791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -7795,7 +7808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -7812,7 +7825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>16</v>
       </c>
@@ -7846,7 +7859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>16</v>
       </c>
@@ -7863,7 +7876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>16</v>
       </c>
@@ -7880,7 +7893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>16</v>
       </c>
@@ -7897,7 +7910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>16</v>
       </c>
@@ -7914,7 +7927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>16</v>
       </c>
@@ -7931,7 +7944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>16</v>
       </c>
@@ -7948,7 +7961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>16</v>
       </c>
@@ -7965,7 +7978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>16</v>
       </c>
@@ -7982,7 +7995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>16</v>
       </c>
@@ -7999,7 +8012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>16</v>
       </c>
@@ -8016,7 +8029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>16</v>
       </c>
@@ -8033,7 +8046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>16</v>
       </c>
@@ -8050,7 +8063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>16</v>
       </c>
@@ -8067,7 +8080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -8084,7 +8097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -8101,7 +8114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>16</v>
       </c>
@@ -8118,7 +8131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>16</v>
       </c>
@@ -8135,7 +8148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>16</v>
       </c>
@@ -8152,7 +8165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>16</v>
       </c>
@@ -8169,7 +8182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>16</v>
       </c>
@@ -8186,7 +8199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>23</v>
       </c>
@@ -8203,7 +8216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>23</v>
       </c>
@@ -8220,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>23</v>
       </c>
@@ -8237,7 +8250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>23</v>
       </c>
@@ -8254,7 +8267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>23</v>
       </c>
@@ -8271,7 +8284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>23</v>
       </c>
@@ -8288,7 +8301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>23</v>
       </c>
@@ -8305,7 +8318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>23</v>
       </c>
@@ -8322,7 +8335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>23</v>
       </c>
@@ -8339,7 +8352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>23</v>
       </c>
@@ -8356,7 +8369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>23</v>
       </c>
@@ -8373,7 +8386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>23</v>
       </c>
@@ -8390,7 +8403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -8407,7 +8420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>23</v>
       </c>
@@ -8424,7 +8437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -8441,7 +8454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -8458,7 +8471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>23</v>
       </c>
@@ -8475,7 +8488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>23</v>
       </c>
@@ -8492,7 +8505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -8509,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>23</v>
       </c>
@@ -8526,7 +8539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>23</v>
       </c>
@@ -8543,7 +8556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -8560,7 +8573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>23</v>
       </c>
@@ -8577,7 +8590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -8594,7 +8607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>23</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>23</v>
       </c>
@@ -8628,7 +8641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>23</v>
       </c>
@@ -8645,7 +8658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>23</v>
       </c>
@@ -8662,7 +8675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>23</v>
       </c>
@@ -8679,7 +8692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>23</v>
       </c>
@@ -8696,7 +8709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -8713,7 +8726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -8730,7 +8743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>14</v>
       </c>
@@ -8747,7 +8760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -8764,7 +8777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>14</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -8798,7 +8811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -8815,7 +8828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>14</v>
       </c>
@@ -8832,7 +8845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -8849,7 +8862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>14</v>
       </c>
@@ -8866,7 +8879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>14</v>
       </c>
@@ -8883,7 +8896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>14</v>
       </c>
@@ -8900,7 +8913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -8917,7 +8930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -8934,7 +8947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -8951,7 +8964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>14</v>
       </c>
@@ -8968,7 +8981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -8985,7 +8998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>14</v>
       </c>
@@ -9002,7 +9015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -9019,7 +9032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -9036,7 +9049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -9053,7 +9066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -9070,7 +9083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>14</v>
       </c>
@@ -9087,7 +9100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -9104,7 +9117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>14</v>
       </c>
@@ -9121,7 +9134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -9138,7 +9151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -9157,10 +9170,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E382" xr:uid="{A20F5077-3FF2-4F40-A07C-157B124CCCED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E382">
-      <sortCondition ref="A2:A382"/>
-      <sortCondition descending="1" ref="D2:D382"/>
-    </sortState>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Anaheim Angels"/>
+        <filter val="Oakland Athletics"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Pitcher"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E383">
     <sortCondition ref="A1"/>
